--- a/ScoutingApp1/lib/Excel_Files/Revolt_robotics_2024.xlsx
+++ b/ScoutingApp1/lib/Excel_Files/Revolt_robotics_2024.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\StudioProjects\FRC_SCOUTING_CRESCENDO_2023\ScoutingApp1\lib\Excel_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C900B5-2082-42E1-B6C4-9880A0194037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7530" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="19548" yWindow="0" windowWidth="3570" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,25 @@
     <sheet name="Auto Picklist" sheetId="8" r:id="rId7"/>
     <sheet name="bot list" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Pre game</t>
   </si>
@@ -316,21 +335,24 @@
   <si>
     <t>Risk of card</t>
   </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>It can be better!!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??.0_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??.0_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,151 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,25 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,19 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,174 +443,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -733,251 +462,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,20 +480,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -1009,31 +501,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
@@ -1045,7 +537,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1054,72 +552,27 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00A7FFAA"/>
-      <color rgb="00BEFECA"/>
-      <color rgb="00FFAEFB"/>
+      <color rgb="FFA7FFAA"/>
+      <color rgb="FFBEFECA"/>
+      <color rgb="FFFFAEFB"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1377,39 +830,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="15.247619047619" customWidth="1"/>
-    <col min="7" max="7" width="5.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="5.42857142857143" customWidth="1"/>
-    <col min="12" max="13" width="12.5047619047619" customWidth="1"/>
-    <col min="14" max="14" width="11.752380952381" customWidth="1"/>
-    <col min="15" max="15" width="11.4380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.26171875" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" customWidth="1"/>
+    <col min="11" max="11" width="5.41796875" customWidth="1"/>
+    <col min="12" max="13" width="12.5234375" customWidth="1"/>
+    <col min="14" max="14" width="11.734375" customWidth="1"/>
+    <col min="15" max="15" width="11.41796875" customWidth="1"/>
     <col min="17" max="20" width="9" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="5.71428571428571" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.71428571428571" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="11.5714285714286" customWidth="1"/>
+    <col min="21" max="21" width="5.68359375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.68359375" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="11.578125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
       <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1427,25 +880,25 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="28" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="29" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="29"/>
+      <c r="AC1" s="30"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
@@ -1536,93 +989,81 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3">
-        <v>610</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:29" s="3" customFormat="1">
+      <c r="A3" s="3">
+        <v>3983</v>
+      </c>
+      <c r="B3" s="3">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>45</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>67</v>
-      </c>
-      <c r="N3">
-        <v>78</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>12</v>
-      </c>
-      <c r="T3">
-        <v>27</v>
-      </c>
-      <c r="U3">
-        <v>198</v>
-      </c>
-      <c r="V3">
-        <v>199</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>24</v>
-      </c>
-      <c r="Y3">
-        <v>28</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>123</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
+      <c r="H3" s="3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -4482,31 +3923,30 @@
     <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15.41796875" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" customWidth="1"/>
+    <col min="5" max="5" width="16.26171875" customWidth="1"/>
+    <col min="6" max="6" width="18.578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -4532,77 +3972,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1114</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1305</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2056</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2386</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2706</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>4015</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>4039</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>4151</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4343</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>4476</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>4940</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>4951</v>
       </c>
@@ -4699,45 +4139,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W280"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="15.247619047619" customWidth="1"/>
-    <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="5.42857142857143" customWidth="1"/>
-    <col min="8" max="8" width="10.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
-    <col min="12" max="13" width="12.5047619047619" customWidth="1"/>
-    <col min="14" max="14" width="11.752380952381" customWidth="1"/>
-    <col min="15" max="15" width="11.4380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" customWidth="1"/>
+    <col min="10" max="10" width="13.578125" customWidth="1"/>
+    <col min="12" max="13" width="12.5234375" customWidth="1"/>
+    <col min="14" max="14" width="11.734375" customWidth="1"/>
+    <col min="15" max="15" width="11.41796875" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
       <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="27" t="s">
         <v>2</v>
       </c>
@@ -4748,17 +4186,17 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="29"/>
+      <c r="W1" s="30"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
@@ -4834,11 +4272,11 @@
     <row r="3" spans="1:23">
       <c r="A3">
         <f>data!A3</f>
-        <v>610</v>
+        <v>3983</v>
       </c>
       <c r="B3">
         <f>data!B3</f>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <f>IF(data!C3=0,0,1)</f>
@@ -4850,67 +4288,67 @@
       </c>
       <c r="E3">
         <f>data!E3</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>data!F3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>data!G3</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f>data!H3</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <f>data!I3</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>data!J3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>data!K3</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f>data!L3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f>data!M3</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f>data!N3</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f>data!O3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f>data!P3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f>data!W3</f>
-        <v>1</v>
-      </c>
-      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
         <f>data!X3</f>
-        <v>24</v>
-      </c>
-      <c r="S3">
+        <v>Aryan</v>
+      </c>
+      <c r="S3" t="str">
         <f>data!Y3</f>
-        <v>28</v>
+        <v>It can be better!!!!</v>
       </c>
       <c r="T3">
         <f>data!Z3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f>data!AA3</f>
@@ -4918,7 +4356,7 @@
       </c>
       <c r="V3">
         <f>data!AB3</f>
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>IF(data!AC3=0,0,IF(data!AC3=1,1,IF(data!AC3=2,2,"womp womp")))</f>
@@ -30971,144 +30409,142 @@
     <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.3142857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="15.7142857142857" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.3125" customWidth="1"/>
+    <col min="5" max="5" width="12.83984375" customWidth="1"/>
+    <col min="6" max="6" width="15.68359375" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="14.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.62857142857143" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.62857142857143" customWidth="1"/>
+    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="9" max="9" width="14.26171875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.62890625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.62890625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="14.0666666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.3142857142857" customWidth="1"/>
-    <col min="15" max="17" width="16.8761904761905" customWidth="1"/>
-    <col min="18" max="18" width="14.9333333333333" customWidth="1"/>
-    <col min="19" max="19" width="14.9333333333333" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.9333333333333" customWidth="1"/>
-    <col min="21" max="21" width="12.9333333333333" customWidth="1"/>
-    <col min="22" max="22" width="6.71428571428571" customWidth="1"/>
-    <col min="23" max="23" width="6.38095238095238" customWidth="1"/>
-    <col min="24" max="24" width="17.8571428571429" customWidth="1"/>
-    <col min="25" max="25" width="6.28571428571429" style="10" customWidth="1"/>
-    <col min="26" max="26" width="9.85714285714286" style="10" customWidth="1"/>
-    <col min="27" max="27" width="13.7142857142857" style="12" customWidth="1"/>
-    <col min="28" max="28" width="11.2857142857143" customWidth="1"/>
-    <col min="29" max="29" width="9.85714285714286" customWidth="1"/>
+    <col min="13" max="13" width="14.05078125" customWidth="1"/>
+    <col min="14" max="14" width="14.3125" customWidth="1"/>
+    <col min="15" max="17" width="16.89453125" customWidth="1"/>
+    <col min="18" max="18" width="14.9453125" customWidth="1"/>
+    <col min="19" max="19" width="14.9453125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="14.9453125" customWidth="1"/>
+    <col min="21" max="21" width="12.9453125" customWidth="1"/>
+    <col min="22" max="22" width="6.68359375" customWidth="1"/>
+    <col min="23" max="23" width="6.3671875" customWidth="1"/>
+    <col min="24" max="24" width="17.83984375" customWidth="1"/>
+    <col min="25" max="25" width="6.26171875" style="9" customWidth="1"/>
+    <col min="26" max="26" width="9.83984375" style="9" customWidth="1"/>
+    <col min="27" max="27" width="13.68359375" style="11" customWidth="1"/>
+    <col min="28" max="28" width="11.26171875" customWidth="1"/>
+    <col min="29" max="29" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>610</v>
       </c>
@@ -31116,116 +30552,116 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A4)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15" t="e">
         <f>(D2+L2+AC2-AD2)</f>
-        <v>208</v>
-      </c>
-      <c r="D2" s="16">
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="15">
         <f>SUM(E2*2)+(H2*5)+(K2*2)</f>
-        <v>108</v>
-      </c>
-      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!G$3:G$2000)/B2</f>
-        <v>23</v>
-      </c>
-      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!H$3:H$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="e">
         <f>E2/(F2+E2)</f>
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H2" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!E$3:E$2000)/B2</f>
-        <v>12</v>
-      </c>
-      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!F$3:F$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="e">
         <f>H2/(H2+I2)</f>
-        <v>0.923076923076923</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K2">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!D$3:D$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
         <f>SUM(N2*1)+(Q2*2)</f>
-        <v>98</v>
-      </c>
-      <c r="M2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
         <f>SUM(N2+Q2)</f>
-        <v>53</v>
-      </c>
-      <c r="N2" s="16">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!K$3:K$2000)/B2</f>
-        <v>8</v>
-      </c>
-      <c r="O2" s="16">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!L$3:L$2000)/B2</f>
-        <v>4</v>
-      </c>
-      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11" t="e">
         <f>N2/(N2+O2)</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="Q2" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!I$3:I$2000)/B2</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!J$3:J$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" t="e">
         <f>Q2/(Q2+R2)</f>
-        <v>0.978260869565217</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T2">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!O$3:O$2000)/B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!P$3:P$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="V2" s="16">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!Q$3:Q$2000)/B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!R$3:R$2000)/B2</f>
-        <v>24</v>
-      </c>
-      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11" t="e">
         <f>V2/(V2+W2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="Y2" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y2" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!S$3:S$2000)/B2</f>
-        <v>28</v>
-      </c>
-      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A2,numbs!T$3:T$2000)/B2</f>
-        <v>1</v>
-      </c>
-      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11" t="e">
         <f>Y2/(Y2+Z2)</f>
-        <v>0.96551724137931</v>
-      </c>
-      <c r="AB2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB2" t="e">
         <f>V2/(V2+SUMIF(numbs!A$3:A$2000,avg!A2,numbs!U$3:U$2000)/B2)</f>
-        <v>1</v>
-      </c>
-      <c r="AC2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC2" t="e">
         <f>IF(V2=1,2,IF(AB=1,2,IF(AB=2,4,0)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>771</v>
       </c>
@@ -31233,35 +30669,35 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A5)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f t="shared" ref="C3:C34" si="0">(D3+L3+AC3-AD3)</f>
         <v>33</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f t="shared" ref="D3:D34" si="1">SUM(E3*2)+(H3*5)+(K3)</f>
         <v>22</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!G$3:G$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!H$3:H$2000)/B3</f>
         <v>2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G34" si="2">E3/(F3+E3)</f>
         <v>0.6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!E$3:E$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!F$3:F$2000)/B3</f>
         <v>2</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f t="shared" ref="J3:J34" si="3">H3/(H3+I3)</f>
         <v>0.6</v>
       </c>
@@ -31269,27 +30705,27 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!D$3:D$2000)/B3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L34" si="4">SUM(N3*1)+(Q3*2)</f>
         <v>9</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <f t="shared" ref="M3:M34" si="5">SUM(N3+Q3)</f>
         <v>6</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!K$3:K$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!L$3:L$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <f t="shared" ref="P3:P34" si="6">N3/(N3+O3)</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!I$3:I$2000)/B3</f>
         <v>3</v>
       </c>
@@ -31297,7 +30733,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!J$3:J$2000)/B3</f>
         <v>2</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S34" si="7">Q3/(Q3+R3)</f>
         <v>0.6</v>
       </c>
@@ -31309,7 +30745,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!P$3:P$2000)/B3</f>
         <v>1</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!Q$3:Q$2000)/B3</f>
         <v>1</v>
       </c>
@@ -31317,19 +30753,19 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!R$3:R$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="11">
         <f t="shared" ref="X3:X34" si="8">V3/(V3+W3)</f>
         <v>0.25</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!S$3:S$2000)/B3</f>
         <v>3</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A3,numbs!T$3:T$2000)/B3</f>
         <v>2</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA34" si="9">Y3/(Y3+Z3)</f>
         <v>0.6</v>
       </c>
@@ -31342,7 +30778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>865</v>
       </c>
@@ -31350,63 +30786,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A6)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!G$3:G$2000)/B4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!H$3:H$2000)/B4</f>
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="H4" s="16">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!E$3:E$2000)/B4</f>
         <v>4</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!F$3:F$2000)/B4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f t="shared" si="3"/>
-        <v>0.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K4">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!D$3:D$2000)/B4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!K$3:K$2000)/B4</f>
         <v>4</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!L$3:L$2000)/B4</f>
         <v>3</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <f t="shared" si="6"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="Q4" s="16">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!I$3:I$2000)/B4</f>
         <v>4</v>
       </c>
@@ -31414,9 +30850,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!J$3:J$2000)/B4</f>
         <v>3</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <f t="shared" si="7"/>
-        <v>0.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="T4">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!O$3:O$2000)/B4</f>
@@ -31426,7 +30862,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!P$3:P$2000)/B4</f>
         <v>1</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!Q$3:Q$2000)/B4</f>
         <v>1</v>
       </c>
@@ -31434,32 +30870,32 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!R$3:R$2000)/B4</f>
         <v>4</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="11">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!S$3:S$2000)/B4</f>
         <v>4</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A4,numbs!T$3:T$2000)/B4</f>
         <v>3</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="11">
         <f t="shared" si="9"/>
-        <v>0.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AB4">
         <f>V4/(V4+SUMIF(numbs!A$3:A$2000,avg!A4,numbs!U$3:U$2000)/B4)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>1114</v>
       </c>
@@ -31467,63 +30903,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A7)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!G$3:G$2000)/B5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!H$3:H$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>0.555555555555556</v>
-      </c>
-      <c r="H5" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!E$3:E$2000)/B5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!F$3:F$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="3"/>
-        <v>0.555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="K5">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!D$3:D$2000)/B5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!K$3:K$2000)/B5</f>
         <v>5</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!L$3:L$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="6"/>
-        <v>0.555555555555556</v>
-      </c>
-      <c r="Q5" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!I$3:I$2000)/B5</f>
         <v>5</v>
       </c>
@@ -31531,9 +30967,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!J$3:J$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <f t="shared" si="7"/>
-        <v>0.555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="T5">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!O$3:O$2000)/B5</f>
@@ -31543,7 +30979,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!P$3:P$2000)/B5</f>
         <v>1</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!Q$3:Q$2000)/B5</f>
         <v>1</v>
       </c>
@@ -31551,19 +30987,19 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!R$3:R$2000)/B5</f>
         <v>3</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="11">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!S$3:S$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A5,numbs!T$3:T$2000)/B5</f>
         <v>4</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="11">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -31576,7 +31012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>1305</v>
       </c>
@@ -31584,63 +31020,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A8)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!G$3:G$2000)/B6</f>
         <v>6</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!H$3:H$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>0.545454545454545</v>
-      </c>
-      <c r="H6" s="16">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!E$3:E$2000)/B6</f>
         <v>6</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!F$3:F$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f t="shared" si="3"/>
-        <v>0.545454545454545</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="K6">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!D$3:D$2000)/B6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!K$3:K$2000)/B6</f>
         <v>6</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!L$3:L$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <f t="shared" si="6"/>
-        <v>0.545454545454545</v>
-      </c>
-      <c r="Q6" s="16">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!I$3:I$2000)/B6</f>
         <v>6</v>
       </c>
@@ -31648,9 +31084,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!J$3:J$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="11">
         <f t="shared" si="7"/>
-        <v>0.545454545454545</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="T6">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!O$3:O$2000)/B6</f>
@@ -31660,7 +31096,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!P$3:P$2000)/B6</f>
         <v>1</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!Q$3:Q$2000)/B6</f>
         <v>1</v>
       </c>
@@ -31668,21 +31104,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!R$3:R$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="11">
         <f t="shared" si="8"/>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="Y6" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y6" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!S$3:S$2000)/B6</f>
         <v>2</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A6,numbs!T$3:T$2000)/B6</f>
         <v>5</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="11">
         <f t="shared" si="9"/>
-        <v>0.285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AB6">
         <f>V6/(V6+SUMIF(numbs!A$3:A$2000,avg!A6,numbs!U$3:U$2000)/B6)</f>
@@ -31693,7 +31129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>2056</v>
       </c>
@@ -31701,63 +31137,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A9)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!G$3:G$2000)/B7</f>
         <v>7</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!H$3:H$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>0.538461538461538</v>
-      </c>
-      <c r="H7" s="16">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="H7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!E$3:E$2000)/B7</f>
         <v>7</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!F$3:F$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f t="shared" si="3"/>
-        <v>0.538461538461538</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K7">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!D$3:D$2000)/B7</f>
         <v>1</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!K$3:K$2000)/B7</f>
         <v>7</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!L$3:L$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f t="shared" si="6"/>
-        <v>0.538461538461538</v>
-      </c>
-      <c r="Q7" s="16">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="Q7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!I$3:I$2000)/B7</f>
         <v>7</v>
       </c>
@@ -31765,9 +31201,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!J$3:J$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="11">
         <f t="shared" si="7"/>
-        <v>0.538461538461538</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="T7">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!O$3:O$2000)/B7</f>
@@ -31777,7 +31213,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!P$3:P$2000)/B7</f>
         <v>1</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!Q$3:Q$2000)/B7</f>
         <v>1</v>
       </c>
@@ -31785,32 +31221,32 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!R$3:R$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <f t="shared" si="8"/>
-        <v>0.142857142857143</v>
-      </c>
-      <c r="Y7" s="10">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Y7" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!S$3:S$2000)/B7</f>
         <v>3</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A7,numbs!T$3:T$2000)/B7</f>
         <v>6</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="11">
         <f t="shared" si="9"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB7">
         <f>V7/(V7+SUMIF(numbs!A$3:A$2000,avg!A7,numbs!U$3:U$2000)/B7)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC7">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>2386</v>
       </c>
@@ -31818,63 +31254,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A10)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!G$3:G$2000)/B8</f>
         <v>8</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!H$3:H$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>0.533333333333333</v>
-      </c>
-      <c r="H8" s="16">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!E$3:E$2000)/B8</f>
         <v>8</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!F$3:F$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f t="shared" si="3"/>
-        <v>0.533333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K8">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!D$3:D$2000)/B8</f>
         <v>1</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!K$3:K$2000)/B8</f>
         <v>8</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!L$3:L$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <f t="shared" si="6"/>
-        <v>0.533333333333333</v>
-      </c>
-      <c r="Q8" s="16">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Q8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!I$3:I$2000)/B8</f>
         <v>8</v>
       </c>
@@ -31882,9 +31318,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!J$3:J$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="11">
         <f t="shared" si="7"/>
-        <v>0.533333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="T8">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!O$3:O$2000)/B8</f>
@@ -31894,7 +31330,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!P$3:P$2000)/B8</f>
         <v>1</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!Q$3:Q$2000)/B8</f>
         <v>1</v>
       </c>
@@ -31902,21 +31338,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!R$3:R$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="11">
         <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!S$3:S$2000)/B8</f>
         <v>4</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A8,numbs!T$3:T$2000)/B8</f>
         <v>7</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="11">
         <f t="shared" si="9"/>
-        <v>0.363636363636364</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AB8">
         <f>V8/(V8+SUMIF(numbs!A$3:A$2000,avg!A8,numbs!U$3:U$2000)/B8)</f>
@@ -31927,7 +31363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>2706</v>
       </c>
@@ -31935,63 +31371,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A11)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!G$3:G$2000)/B9</f>
         <v>9</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!H$3:H$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" si="2"/>
-        <v>0.529411764705882</v>
-      </c>
-      <c r="H9" s="16">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="H9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!E$3:E$2000)/B9</f>
         <v>9</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!F$3:F$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f t="shared" si="3"/>
-        <v>0.529411764705882</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="K9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!D$3:D$2000)/B9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!K$3:K$2000)/B9</f>
         <v>9</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!L$3:L$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f t="shared" si="6"/>
-        <v>0.529411764705882</v>
-      </c>
-      <c r="Q9" s="16">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="Q9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!I$3:I$2000)/B9</f>
         <v>9</v>
       </c>
@@ -31999,9 +31435,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!J$3:J$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f t="shared" si="7"/>
-        <v>0.529411764705882</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="T9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!O$3:O$2000)/B9</f>
@@ -32011,7 +31447,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!P$3:P$2000)/B9</f>
         <v>9</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!Q$3:Q$2000)/B9</f>
         <v>1</v>
       </c>
@@ -32019,21 +31455,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!R$3:R$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="11">
         <f t="shared" si="8"/>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="Y9" s="10">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y9" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!S$3:S$2000)/B9</f>
         <v>5</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A9,numbs!T$3:T$2000)/B9</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="11">
         <f t="shared" si="9"/>
-        <v>0.384615384615385</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AB9">
         <f>V9/(V9+SUMIF(numbs!A$3:A$2000,avg!A9,numbs!U$3:U$2000)/B9)</f>
@@ -32044,7 +31480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>4015</v>
       </c>
@@ -32052,63 +31488,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A12)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!G$3:G$2000)/B10</f>
         <v>10</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!H$3:H$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>0.526315789473684</v>
-      </c>
-      <c r="H10" s="16">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="H10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!E$3:E$2000)/B10</f>
         <v>10</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!F$3:F$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <f t="shared" si="3"/>
-        <v>0.526315789473684</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="K10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!D$3:D$2000)/B10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!K$3:K$2000)/B10</f>
         <v>10</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!L$3:L$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f t="shared" si="6"/>
-        <v>0.526315789473684</v>
-      </c>
-      <c r="Q10" s="16">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="Q10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!I$3:I$2000)/B10</f>
         <v>10</v>
       </c>
@@ -32116,9 +31552,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!J$3:J$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <f t="shared" si="7"/>
-        <v>0.526315789473684</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="T10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!O$3:O$2000)/B10</f>
@@ -32128,7 +31564,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!P$3:P$2000)/B10</f>
         <v>1</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!Q$3:Q$2000)/B10</f>
         <v>1</v>
       </c>
@@ -32136,32 +31572,32 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!R$3:R$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="11">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!S$3:S$2000)/B10</f>
         <v>6</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A10,numbs!T$3:T$2000)/B10</f>
         <v>9</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="11">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="AB10">
         <f>V10/(V10+SUMIF(numbs!A$3:A$2000,avg!A10,numbs!U$3:U$2000)/B10)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC10">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>4039</v>
       </c>
@@ -32169,63 +31605,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A13)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!G$3:G$2000)/B11</f>
         <v>11</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!H$3:H$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>0.523809523809524</v>
-      </c>
-      <c r="H11" s="16">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="H11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!E$3:E$2000)/B11</f>
         <v>11</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!F$3:F$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="3"/>
-        <v>0.523809523809524</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="K11">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!D$3:D$2000)/B11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!K$3:K$2000)/B11</f>
         <v>11</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!L$3:L$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <f t="shared" si="6"/>
-        <v>0.523809523809524</v>
-      </c>
-      <c r="Q11" s="16">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="Q11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!I$3:I$2000)/B11</f>
         <v>11</v>
       </c>
@@ -32233,9 +31669,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!J$3:J$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <f t="shared" si="7"/>
-        <v>0.523809523809524</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="T11">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!O$3:O$2000)/B11</f>
@@ -32245,7 +31681,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!P$3:P$2000)/B11</f>
         <v>1</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!Q$3:Q$2000)/B11</f>
         <v>1</v>
       </c>
@@ -32253,21 +31689,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!R$3:R$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="11">
         <f t="shared" si="8"/>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="Y11" s="10">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Y11" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!S$3:S$2000)/B11</f>
         <v>7</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A11,numbs!T$3:T$2000)/B11</f>
         <v>10</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="11">
         <f t="shared" si="9"/>
-        <v>0.411764705882353</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="AB11">
         <f>V11/(V11+SUMIF(numbs!A$3:A$2000,avg!A11,numbs!U$3:U$2000)/B11)</f>
@@ -32278,7 +31714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>4151</v>
       </c>
@@ -32286,63 +31722,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A14)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!G$3:G$2000)/B12</f>
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!H$3:H$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>0.521739130434783</v>
-      </c>
-      <c r="H12" s="16">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="H12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!E$3:E$2000)/B12</f>
         <v>12</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!F$3:F$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f t="shared" si="3"/>
-        <v>0.521739130434783</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="K12">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!D$3:D$2000)/B12</f>
         <v>1</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!K$3:K$2000)/B12</f>
         <v>12</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!L$3:L$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <f t="shared" si="6"/>
-        <v>0.521739130434783</v>
-      </c>
-      <c r="Q12" s="16">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="Q12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!I$3:I$2000)/B12</f>
         <v>12</v>
       </c>
@@ -32350,9 +31786,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!J$3:J$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="11">
         <f t="shared" si="7"/>
-        <v>0.521739130434783</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="T12">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!O$3:O$2000)/B12</f>
@@ -32362,7 +31798,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!P$3:P$2000)/B12</f>
         <v>1</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!Q$3:Q$2000)/B12</f>
         <v>1</v>
       </c>
@@ -32370,21 +31806,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!R$3:R$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="11">
         <f t="shared" si="8"/>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Y12" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y12" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!S$3:S$2000)/B12</f>
         <v>8</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A12,numbs!T$3:T$2000)/B12</f>
         <v>11</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="11">
         <f t="shared" si="9"/>
-        <v>0.421052631578947</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="AB12">
         <f>V12/(V12+SUMIF(numbs!A$3:A$2000,avg!A12,numbs!U$3:U$2000)/B12)</f>
@@ -32395,7 +31831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>4343</v>
       </c>
@@ -32403,35 +31839,35 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A15)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!G$3:G$2000)/B13</f>
         <v>13</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!H$3:H$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!E$3:E$2000)/B13</f>
         <v>13</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!F$3:F$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
@@ -32439,27 +31875,27 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!D$3:D$2000)/B13</f>
         <v>1</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!K$3:K$2000)/B13</f>
         <v>13</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!L$3:L$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <f t="shared" si="6"/>
         <v>0.52</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!I$3:I$2000)/B13</f>
         <v>13</v>
       </c>
@@ -32467,7 +31903,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!J$3:J$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="11">
         <f t="shared" si="7"/>
         <v>0.52</v>
       </c>
@@ -32479,7 +31915,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!P$3:P$2000)/B13</f>
         <v>1</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!Q$3:Q$2000)/B13</f>
         <v>1</v>
       </c>
@@ -32487,32 +31923,32 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!R$3:R$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="11">
         <f t="shared" si="8"/>
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="Y13" s="10">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y13" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!S$3:S$2000)/B13</f>
         <v>9</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A13,numbs!T$3:T$2000)/B13</f>
         <v>12</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="11">
         <f t="shared" si="9"/>
-        <v>0.428571428571429</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AB13">
         <f>V13/(V13+SUMIF(numbs!A$3:A$2000,avg!A13,numbs!U$3:U$2000)/B13)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC13">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>4476</v>
       </c>
@@ -32520,63 +31956,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A16)</f>
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!G$3:G$2000)/B14</f>
         <v>14</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!H$3:H$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>0.518518518518518</v>
-      </c>
-      <c r="H14" s="16">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="H14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!E$3:E$2000)/B14</f>
         <v>14</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!F$3:F$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f t="shared" si="3"/>
-        <v>0.518518518518518</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="K14">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!D$3:D$2000)/B14</f>
         <v>1</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!K$3:K$2000)/B14</f>
         <v>14</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!L$3:L$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <f t="shared" si="6"/>
-        <v>0.518518518518518</v>
-      </c>
-      <c r="Q14" s="16">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="Q14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!I$3:I$2000)/B14</f>
         <v>14</v>
       </c>
@@ -32584,9 +32020,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!J$3:J$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="11">
         <f t="shared" si="7"/>
-        <v>0.518518518518518</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="T14">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!O$3:O$2000)/B14</f>
@@ -32596,7 +32032,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!P$3:P$2000)/B14</f>
         <v>1</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!Q$3:Q$2000)/B14</f>
         <v>1</v>
       </c>
@@ -32604,21 +32040,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!R$3:R$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="11">
         <f t="shared" si="8"/>
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y14" s="10">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Y14" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!S$3:S$2000)/B14</f>
         <v>10</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A14,numbs!T$3:T$2000)/B14</f>
         <v>13</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="11">
         <f t="shared" si="9"/>
-        <v>0.434782608695652</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="AB14">
         <f>V14/(V14+SUMIF(numbs!A$3:A$2000,avg!A14,numbs!U$3:U$2000)/B14)</f>
@@ -32629,7 +32065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>4940</v>
       </c>
@@ -32637,63 +32073,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A17)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!G$3:G$2000)/B15</f>
         <v>15</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!H$3:H$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>0.517241379310345</v>
-      </c>
-      <c r="H15" s="16">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="H15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!E$3:E$2000)/B15</f>
         <v>15</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!F$3:F$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f t="shared" si="3"/>
-        <v>0.517241379310345</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="K15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!D$3:D$2000)/B15</f>
         <v>1</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!K$3:K$2000)/B15</f>
         <v>15</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!L$3:L$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <f t="shared" si="6"/>
-        <v>0.517241379310345</v>
-      </c>
-      <c r="Q15" s="16">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="Q15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!I$3:I$2000)/B15</f>
         <v>15</v>
       </c>
@@ -32701,9 +32137,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!J$3:J$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <f t="shared" si="7"/>
-        <v>0.517241379310345</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="T15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!O$3:O$2000)/B15</f>
@@ -32713,7 +32149,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!P$3:P$2000)/B15</f>
         <v>1</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!Q$3:Q$2000)/B15</f>
         <v>1</v>
       </c>
@@ -32721,19 +32157,19 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!R$3:R$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="11">
         <f t="shared" si="8"/>
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="Y15" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Y15" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!S$3:S$2000)/B15</f>
         <v>11</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A15,numbs!T$3:T$2000)/B15</f>
         <v>14</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="11">
         <f t="shared" si="9"/>
         <v>0.44</v>
       </c>
@@ -32746,7 +32182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>4951</v>
       </c>
@@ -32754,63 +32190,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A18)</f>
         <v>1</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!G$3:G$2000)/B16</f>
         <v>16</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!H$3:H$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>0.516129032258065</v>
-      </c>
-      <c r="H16" s="16">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="H16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!E$3:E$2000)/B16</f>
         <v>16</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!F$3:F$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <f t="shared" si="3"/>
-        <v>0.516129032258065</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="K16">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!D$3:D$2000)/B16</f>
         <v>1</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!K$3:K$2000)/B16</f>
         <v>16</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!L$3:L$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <f t="shared" si="6"/>
-        <v>0.516129032258065</v>
-      </c>
-      <c r="Q16" s="16">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="Q16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!I$3:I$2000)/B16</f>
         <v>16</v>
       </c>
@@ -32818,9 +32254,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!J$3:J$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <f t="shared" si="7"/>
-        <v>0.516129032258065</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="T16">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!O$3:O$2000)/B16</f>
@@ -32830,7 +32266,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!P$3:P$2000)/B16</f>
         <v>1</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!Q$3:Q$2000)/B16</f>
         <v>1</v>
       </c>
@@ -32838,25 +32274,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!R$3:R$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="11">
         <f t="shared" si="8"/>
-        <v>0.0625</v>
-      </c>
-      <c r="Y16" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y16" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!S$3:S$2000)/B16</f>
         <v>12</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A16,numbs!T$3:T$2000)/B16</f>
         <v>15</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="11">
         <f t="shared" si="9"/>
-        <v>0.444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AB16">
         <f>V16/(V16+SUMIF(numbs!A$3:A$2000,avg!A16,numbs!U$3:U$2000)/B16)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC16">
         <f t="shared" si="10"/>
@@ -32871,63 +32307,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A19)</f>
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!G$3:G$2000)/B17</f>
         <v>17</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!H$3:H$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>0.515151515151515</v>
-      </c>
-      <c r="H17" s="16">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="H17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!E$3:E$2000)/B17</f>
         <v>17</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!F$3:F$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <f t="shared" si="3"/>
-        <v>0.515151515151515</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="K17">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!D$3:D$2000)/B17</f>
         <v>1</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!K$3:K$2000)/B17</f>
         <v>17</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!L$3:L$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <f t="shared" si="6"/>
-        <v>0.515151515151515</v>
-      </c>
-      <c r="Q17" s="16">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="Q17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!I$3:I$2000)/B17</f>
         <v>17</v>
       </c>
@@ -32935,9 +32371,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!J$3:J$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <f t="shared" si="7"/>
-        <v>0.515151515151515</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="T17">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!O$3:O$2000)/B17</f>
@@ -32947,7 +32383,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!P$3:P$2000)/B17</f>
         <v>17</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!Q$3:Q$2000)/B17</f>
         <v>1</v>
       </c>
@@ -32955,21 +32391,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!R$3:R$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="11">
         <f t="shared" si="8"/>
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="Y17" s="10">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="Y17" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!S$3:S$2000)/B17</f>
         <v>13</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A17,numbs!T$3:T$2000)/B17</f>
         <v>16</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="11">
         <f t="shared" si="9"/>
-        <v>0.448275862068966</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="AB17">
         <f>V17/(V17+SUMIF(numbs!A$3:A$2000,avg!A17,numbs!U$3:U$2000)/B17)</f>
@@ -32988,63 +32424,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A20)</f>
         <v>1</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!G$3:G$2000)/B18</f>
         <v>18</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!H$3:H$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>0.514285714285714</v>
-      </c>
-      <c r="H18" s="16">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="H18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!E$3:E$2000)/B18</f>
         <v>18</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!F$3:F$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <f t="shared" si="3"/>
-        <v>0.514285714285714</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="K18">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!D$3:D$2000)/B18</f>
         <v>1</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!K$3:K$2000)/B18</f>
         <v>18</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!L$3:L$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="11">
         <f t="shared" si="6"/>
-        <v>0.514285714285714</v>
-      </c>
-      <c r="Q18" s="16">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="Q18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!I$3:I$2000)/B18</f>
         <v>18</v>
       </c>
@@ -33052,9 +32488,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!J$3:J$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="11">
         <f t="shared" si="7"/>
-        <v>0.514285714285714</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="T18">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!O$3:O$2000)/B18</f>
@@ -33064,7 +32500,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!P$3:P$2000)/B18</f>
         <v>1</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!Q$3:Q$2000)/B18</f>
         <v>1</v>
       </c>
@@ -33072,21 +32508,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!R$3:R$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="11">
         <f t="shared" si="8"/>
-        <v>0.0555555555555556</v>
-      </c>
-      <c r="Y18" s="10">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Y18" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!S$3:S$2000)/B18</f>
         <v>14</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A18,numbs!T$3:T$2000)/B18</f>
         <v>17</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="11">
         <f t="shared" si="9"/>
-        <v>0.451612903225806</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="AB18">
         <f>V18/(V18+SUMIF(numbs!A$3:A$2000,avg!A18,numbs!U$3:U$2000)/B18)</f>
@@ -33105,63 +32541,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A21)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!G$3:G$2000)/B19</f>
         <v>19</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!H$3:H$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>0.513513513513513</v>
-      </c>
-      <c r="H19" s="16">
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="H19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!E$3:E$2000)/B19</f>
         <v>19</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!F$3:F$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <f t="shared" si="3"/>
-        <v>0.513513513513513</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="K19">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!D$3:D$2000)/B19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!K$3:K$2000)/B19</f>
         <v>19</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!L$3:L$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="11">
         <f t="shared" si="6"/>
-        <v>0.513513513513513</v>
-      </c>
-      <c r="Q19" s="16">
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="Q19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!I$3:I$2000)/B19</f>
         <v>19</v>
       </c>
@@ -33169,9 +32605,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!J$3:J$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="11">
         <f t="shared" si="7"/>
-        <v>0.513513513513513</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="T19">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!O$3:O$2000)/B19</f>
@@ -33181,7 +32617,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!P$3:P$2000)/B19</f>
         <v>1</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!Q$3:Q$2000)/B19</f>
         <v>1</v>
       </c>
@@ -33189,25 +32625,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!R$3:R$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="11">
         <f t="shared" si="8"/>
-        <v>0.0526315789473684</v>
-      </c>
-      <c r="Y19" s="10">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="Y19" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!S$3:S$2000)/B19</f>
         <v>15</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A19,numbs!T$3:T$2000)/B19</f>
         <v>18</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="11">
         <f t="shared" si="9"/>
-        <v>0.454545454545455</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AB19">
         <f>V19/(V19+SUMIF(numbs!A$3:A$2000,avg!A19,numbs!U$3:U$2000)/B19)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC19">
         <f t="shared" si="10"/>
@@ -33222,63 +32658,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A22)</f>
         <v>1</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!G$3:G$2000)/B20</f>
         <v>20</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!H$3:H$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>0.512820512820513</v>
-      </c>
-      <c r="H20" s="16">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="H20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!E$3:E$2000)/B20</f>
         <v>20</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!F$3:F$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <f t="shared" si="3"/>
-        <v>0.512820512820513</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="K20">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!D$3:D$2000)/B20</f>
         <v>1</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!K$3:K$2000)/B20</f>
         <v>20</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!L$3:L$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <f t="shared" si="6"/>
-        <v>0.512820512820513</v>
-      </c>
-      <c r="Q20" s="16">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="Q20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!I$3:I$2000)/B20</f>
         <v>20</v>
       </c>
@@ -33286,9 +32722,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!J$3:J$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="11">
         <f t="shared" si="7"/>
-        <v>0.512820512820513</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="T20">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!O$3:O$2000)/B20</f>
@@ -33298,7 +32734,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!P$3:P$2000)/B20</f>
         <v>1</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!Q$3:Q$2000)/B20</f>
         <v>1</v>
       </c>
@@ -33306,21 +32742,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!R$3:R$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="11">
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!S$3:S$2000)/B20</f>
         <v>16</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A20,numbs!T$3:T$2000)/B20</f>
         <v>19</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="11">
         <f t="shared" si="9"/>
-        <v>0.457142857142857</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="AB20">
         <f>V20/(V20+SUMIF(numbs!A$3:A$2000,avg!A20,numbs!U$3:U$2000)/B20)</f>
@@ -33339,63 +32775,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A23)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!G$3:G$2000)/B21</f>
         <v>21</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!H$3:H$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>0.51219512195122</v>
-      </c>
-      <c r="H21" s="16">
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="H21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!E$3:E$2000)/B21</f>
         <v>21</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!F$3:F$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>0.51219512195122</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="K21">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!D$3:D$2000)/B21</f>
         <v>1</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!K$3:K$2000)/B21</f>
         <v>21</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!L$3:L$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <f t="shared" si="6"/>
-        <v>0.51219512195122</v>
-      </c>
-      <c r="Q21" s="16">
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="Q21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!I$3:I$2000)/B21</f>
         <v>21</v>
       </c>
@@ -33403,9 +32839,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!J$3:J$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <f t="shared" si="7"/>
-        <v>0.51219512195122</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="T21">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!O$3:O$2000)/B21</f>
@@ -33415,7 +32851,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!P$3:P$2000)/B21</f>
         <v>1</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!Q$3:Q$2000)/B21</f>
         <v>1</v>
       </c>
@@ -33423,21 +32859,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!R$3:R$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="11">
         <f t="shared" si="8"/>
-        <v>0.0476190476190476</v>
-      </c>
-      <c r="Y21" s="10">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y21" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!S$3:S$2000)/B21</f>
         <v>17</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A21,numbs!T$3:T$2000)/B21</f>
         <v>20</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="11">
         <f t="shared" si="9"/>
-        <v>0.459459459459459</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="AB21">
         <f>V21/(V21+SUMIF(numbs!A$3:A$2000,avg!A21,numbs!U$3:U$2000)/B21)</f>
@@ -33456,63 +32892,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A24)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!G$3:G$2000)/B22</f>
         <v>22</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!H$3:H$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>0.511627906976744</v>
-      </c>
-      <c r="H22" s="16">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="H22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!E$3:E$2000)/B22</f>
         <v>22</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!F$3:F$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <f t="shared" si="3"/>
-        <v>0.511627906976744</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="K22">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!D$3:D$2000)/B22</f>
         <v>1</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!K$3:K$2000)/B22</f>
         <v>22</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!L$3:L$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <f t="shared" si="6"/>
-        <v>0.511627906976744</v>
-      </c>
-      <c r="Q22" s="16">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="Q22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!I$3:I$2000)/B22</f>
         <v>22</v>
       </c>
@@ -33520,9 +32956,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!J$3:J$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="11">
         <f t="shared" si="7"/>
-        <v>0.511627906976744</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="T22">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!O$3:O$2000)/B22</f>
@@ -33532,7 +32968,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!P$3:P$2000)/B22</f>
         <v>22</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!Q$3:Q$2000)/B22</f>
         <v>1</v>
       </c>
@@ -33540,25 +32976,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!R$3:R$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="11">
         <f t="shared" si="8"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="Y22" s="10">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="Y22" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!S$3:S$2000)/B22</f>
         <v>18</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A22,numbs!T$3:T$2000)/B22</f>
         <v>21</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="11">
         <f t="shared" si="9"/>
-        <v>0.461538461538462</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AB22">
         <f>V22/(V22+SUMIF(numbs!A$3:A$2000,avg!A22,numbs!U$3:U$2000)/B22)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC22">
         <f t="shared" si="10"/>
@@ -33573,63 +33009,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A25)</f>
         <v>1</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!G$3:G$2000)/B23</f>
         <v>23</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!H$3:H$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>0.511111111111111</v>
-      </c>
-      <c r="H23" s="16">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="H23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!E$3:E$2000)/B23</f>
         <v>23</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!F$3:F$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <f t="shared" si="3"/>
-        <v>0.511111111111111</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="K23">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!D$3:D$2000)/B23</f>
         <v>1</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="15">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!K$3:K$2000)/B23</f>
         <v>23</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!L$3:L$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="11">
         <f t="shared" si="6"/>
-        <v>0.511111111111111</v>
-      </c>
-      <c r="Q23" s="16">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="Q23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!I$3:I$2000)/B23</f>
         <v>23</v>
       </c>
@@ -33637,9 +33073,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!J$3:J$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="11">
         <f t="shared" si="7"/>
-        <v>0.511111111111111</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="T23">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!O$3:O$2000)/B23</f>
@@ -33649,7 +33085,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!P$3:P$2000)/B23</f>
         <v>1</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!Q$3:Q$2000)/B23</f>
         <v>1</v>
       </c>
@@ -33657,21 +33093,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!R$3:R$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="11">
         <f t="shared" si="8"/>
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="Y23" s="10">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="Y23" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!S$3:S$2000)/B23</f>
         <v>19</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A23,numbs!T$3:T$2000)/B23</f>
         <v>22</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="11">
         <f t="shared" si="9"/>
-        <v>0.463414634146341</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="AB23">
         <f>V23/(V23+SUMIF(numbs!A$3:A$2000,avg!A23,numbs!U$3:U$2000)/B23)</f>
@@ -33690,63 +33126,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A26)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!G$3:G$2000)/B24</f>
         <v>24</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!H$3:H$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f t="shared" si="2"/>
-        <v>0.51063829787234</v>
-      </c>
-      <c r="H24" s="16">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="H24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!E$3:E$2000)/B24</f>
         <v>24</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!F$3:F$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <f t="shared" si="3"/>
-        <v>0.51063829787234</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="K24">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!D$3:D$2000)/B24</f>
         <v>1</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!K$3:K$2000)/B24</f>
         <v>24</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!L$3:L$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <f t="shared" si="6"/>
-        <v>0.51063829787234</v>
-      </c>
-      <c r="Q24" s="16">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="Q24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!I$3:I$2000)/B24</f>
         <v>24</v>
       </c>
@@ -33754,9 +33190,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!J$3:J$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="11">
         <f t="shared" si="7"/>
-        <v>0.51063829787234</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="T24">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!O$3:O$2000)/B24</f>
@@ -33766,7 +33202,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!P$3:P$2000)/B24</f>
         <v>1</v>
       </c>
-      <c r="V24" s="16">
+      <c r="V24" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!Q$3:Q$2000)/B24</f>
         <v>1</v>
       </c>
@@ -33774,21 +33210,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!R$3:R$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="11">
         <f t="shared" si="8"/>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Y24" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y24" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!S$3:S$2000)/B24</f>
         <v>20</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A24,numbs!T$3:T$2000)/B24</f>
         <v>23</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="11">
         <f t="shared" si="9"/>
-        <v>0.465116279069767</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="AB24">
         <f>V24/(V24+SUMIF(numbs!A$3:A$2000,avg!A24,numbs!U$3:U$2000)/B24)</f>
@@ -33807,63 +33243,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A27)</f>
         <v>1</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!G$3:G$2000)/B25</f>
         <v>25</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!H$3:H$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" si="2"/>
-        <v>0.510204081632653</v>
-      </c>
-      <c r="H25" s="16">
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="H25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!E$3:E$2000)/B25</f>
         <v>25</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!F$3:F$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <f t="shared" si="3"/>
-        <v>0.510204081632653</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="K25">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!D$3:D$2000)/B25</f>
         <v>1</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="15">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!K$3:K$2000)/B25</f>
         <v>25</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!L$3:L$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="11">
         <f t="shared" si="6"/>
-        <v>0.510204081632653</v>
-      </c>
-      <c r="Q25" s="16">
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="Q25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!I$3:I$2000)/B25</f>
         <v>25</v>
       </c>
@@ -33871,9 +33307,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!J$3:J$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="11">
         <f t="shared" si="7"/>
-        <v>0.510204081632653</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="T25">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!O$3:O$2000)/B25</f>
@@ -33883,7 +33319,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!P$3:P$2000)/B25</f>
         <v>1</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!Q$3:Q$2000)/B25</f>
         <v>1</v>
       </c>
@@ -33891,25 +33327,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!R$3:R$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="11">
         <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!S$3:S$2000)/B25</f>
         <v>21</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A25,numbs!T$3:T$2000)/B25</f>
         <v>24</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="11">
         <f t="shared" si="9"/>
-        <v>0.466666666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AB25">
         <f>V25/(V25+SUMIF(numbs!A$3:A$2000,avg!A25,numbs!U$3:U$2000)/B25)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC25">
         <f t="shared" si="10"/>
@@ -33924,63 +33360,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A28)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!G$3:G$2000)/B26</f>
         <v>26</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!H$3:H$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f t="shared" si="2"/>
-        <v>0.509803921568627</v>
-      </c>
-      <c r="H26" s="16">
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="H26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!E$3:E$2000)/B26</f>
         <v>26</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!F$3:F$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <f t="shared" si="3"/>
-        <v>0.509803921568627</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="K26">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!D$3:D$2000)/B26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!K$3:K$2000)/B26</f>
         <v>26</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!L$3:L$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="11">
         <f t="shared" si="6"/>
-        <v>0.509803921568627</v>
-      </c>
-      <c r="Q26" s="16">
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="Q26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!I$3:I$2000)/B26</f>
         <v>26</v>
       </c>
@@ -33988,9 +33424,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!J$3:J$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="11">
         <f t="shared" si="7"/>
-        <v>0.509803921568627</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="T26">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!O$3:O$2000)/B26</f>
@@ -34000,7 +33436,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!P$3:P$2000)/B26</f>
         <v>1</v>
       </c>
-      <c r="V26" s="16">
+      <c r="V26" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!Q$3:Q$2000)/B26</f>
         <v>1</v>
       </c>
@@ -34008,21 +33444,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!R$3:R$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="11">
         <f t="shared" si="8"/>
-        <v>0.0384615384615385</v>
-      </c>
-      <c r="Y26" s="10">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="Y26" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!S$3:S$2000)/B26</f>
         <v>22</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A26,numbs!T$3:T$2000)/B26</f>
         <v>25</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="11">
         <f t="shared" si="9"/>
-        <v>0.468085106382979</v>
+        <v>0.46808510638297873</v>
       </c>
       <c r="AB26">
         <f>V26/(V26+SUMIF(numbs!A$3:A$2000,avg!A26,numbs!U$3:U$2000)/B26)</f>
@@ -34041,63 +33477,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A29)</f>
         <v>1</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!G$3:G$2000)/B27</f>
         <v>27</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!H$3:H$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <f t="shared" si="2"/>
-        <v>0.509433962264151</v>
-      </c>
-      <c r="H27" s="16">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="H27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!E$3:E$2000)/B27</f>
         <v>27</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!F$3:F$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <f t="shared" si="3"/>
-        <v>0.509433962264151</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="K27">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!D$3:D$2000)/B27</f>
         <v>1</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="15">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="15">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!K$3:K$2000)/B27</f>
         <v>27</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!L$3:L$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="11">
         <f t="shared" si="6"/>
-        <v>0.509433962264151</v>
-      </c>
-      <c r="Q27" s="16">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="Q27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!I$3:I$2000)/B27</f>
         <v>27</v>
       </c>
@@ -34105,9 +33541,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!J$3:J$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="11">
         <f t="shared" si="7"/>
-        <v>0.509433962264151</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="T27">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!O$3:O$2000)/B27</f>
@@ -34117,7 +33553,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!P$3:P$2000)/B27</f>
         <v>27</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V27" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!Q$3:Q$2000)/B27</f>
         <v>1</v>
       </c>
@@ -34125,21 +33561,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!R$3:R$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="11">
         <f t="shared" si="8"/>
-        <v>0.037037037037037</v>
-      </c>
-      <c r="Y27" s="10">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="Y27" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!S$3:S$2000)/B27</f>
         <v>23</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A27,numbs!T$3:T$2000)/B27</f>
         <v>26</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27" s="11">
         <f t="shared" si="9"/>
-        <v>0.469387755102041</v>
+        <v>0.46938775510204084</v>
       </c>
       <c r="AB27">
         <f>V27/(V27+SUMIF(numbs!A$3:A$2000,avg!A27,numbs!U$3:U$2000)/B27)</f>
@@ -34158,63 +33594,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A30)</f>
         <v>1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!G$3:G$2000)/B28</f>
         <v>28</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!H$3:H$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="2"/>
-        <v>0.509090909090909</v>
-      </c>
-      <c r="H28" s="16">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="H28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!E$3:E$2000)/B28</f>
         <v>28</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!F$3:F$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <f t="shared" si="3"/>
-        <v>0.509090909090909</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="K28">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!D$3:D$2000)/B28</f>
         <v>1</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!K$3:K$2000)/B28</f>
         <v>28</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!L$3:L$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="11">
         <f t="shared" si="6"/>
-        <v>0.509090909090909</v>
-      </c>
-      <c r="Q28" s="16">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="Q28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!I$3:I$2000)/B28</f>
         <v>28</v>
       </c>
@@ -34222,9 +33658,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!J$3:J$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="11">
         <f t="shared" si="7"/>
-        <v>0.509090909090909</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="T28">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!O$3:O$2000)/B28</f>
@@ -34234,7 +33670,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!P$3:P$2000)/B28</f>
         <v>1</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!Q$3:Q$2000)/B28</f>
         <v>1</v>
       </c>
@@ -34242,25 +33678,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!R$3:R$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="11">
         <f t="shared" si="8"/>
-        <v>0.0357142857142857</v>
-      </c>
-      <c r="Y28" s="10">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="Y28" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!S$3:S$2000)/B28</f>
         <v>24</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A28,numbs!T$3:T$2000)/B28</f>
         <v>27</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28" s="11">
         <f t="shared" si="9"/>
-        <v>0.470588235294118</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="AB28">
         <f>V28/(V28+SUMIF(numbs!A$3:A$2000,avg!A28,numbs!U$3:U$2000)/B28)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC28">
         <f t="shared" si="10"/>
@@ -34275,63 +33711,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A31)</f>
         <v>1</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!G$3:G$2000)/B29</f>
         <v>29</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!H$3:H$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <f t="shared" si="2"/>
-        <v>0.508771929824561</v>
-      </c>
-      <c r="H29" s="16">
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="H29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!E$3:E$2000)/B29</f>
         <v>29</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!F$3:F$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <f t="shared" si="3"/>
-        <v>0.508771929824561</v>
+        <v>0.50877192982456143</v>
       </c>
       <c r="K29">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!D$3:D$2000)/B29</f>
         <v>1</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!K$3:K$2000)/B29</f>
         <v>29</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!L$3:L$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <f t="shared" si="6"/>
-        <v>0.508771929824561</v>
-      </c>
-      <c r="Q29" s="16">
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="Q29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!I$3:I$2000)/B29</f>
         <v>29</v>
       </c>
@@ -34339,9 +33775,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!J$3:J$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="11">
         <f t="shared" si="7"/>
-        <v>0.508771929824561</v>
+        <v>0.50877192982456143</v>
       </c>
       <c r="T29">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!O$3:O$2000)/B29</f>
@@ -34351,7 +33787,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!P$3:P$2000)/B29</f>
         <v>29</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!Q$3:Q$2000)/B29</f>
         <v>1</v>
       </c>
@@ -34359,21 +33795,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!R$3:R$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="11">
         <f t="shared" si="8"/>
-        <v>0.0344827586206897</v>
-      </c>
-      <c r="Y29" s="10">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="Y29" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!S$3:S$2000)/B29</f>
         <v>25</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A29,numbs!T$3:T$2000)/B29</f>
         <v>28</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="11">
         <f t="shared" si="9"/>
-        <v>0.471698113207547</v>
+        <v>0.47169811320754718</v>
       </c>
       <c r="AB29">
         <f>V29/(V29+SUMIF(numbs!A$3:A$2000,avg!A29,numbs!U$3:U$2000)/B29)</f>
@@ -34392,63 +33828,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A32)</f>
         <v>1</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!G$3:G$2000)/B30</f>
         <v>30</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!H$3:H$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <f t="shared" si="2"/>
-        <v>0.508474576271186</v>
-      </c>
-      <c r="H30" s="16">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="H30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!E$3:E$2000)/B30</f>
         <v>30</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!F$3:F$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <f t="shared" si="3"/>
-        <v>0.508474576271186</v>
+        <v>0.50847457627118642</v>
       </c>
       <c r="K30">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!D$3:D$2000)/B30</f>
         <v>1</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!K$3:K$2000)/B30</f>
         <v>30</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!L$3:L$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <f t="shared" si="6"/>
-        <v>0.508474576271186</v>
-      </c>
-      <c r="Q30" s="16">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="Q30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!I$3:I$2000)/B30</f>
         <v>30</v>
       </c>
@@ -34456,9 +33892,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!J$3:J$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="11">
         <f t="shared" si="7"/>
-        <v>0.508474576271186</v>
+        <v>0.50847457627118642</v>
       </c>
       <c r="T30">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!O$3:O$2000)/B30</f>
@@ -34468,7 +33904,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!P$3:P$2000)/B30</f>
         <v>30</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!Q$3:Q$2000)/B30</f>
         <v>1</v>
       </c>
@@ -34476,21 +33912,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!R$3:R$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="11">
         <f t="shared" si="8"/>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="Y30" s="10">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Y30" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!S$3:S$2000)/B30</f>
         <v>26</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A30,numbs!T$3:T$2000)/B30</f>
         <v>29</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="11">
         <f t="shared" si="9"/>
-        <v>0.472727272727273</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="AB30">
         <f>V30/(V30+SUMIF(numbs!A$3:A$2000,avg!A30,numbs!U$3:U$2000)/B30)</f>
@@ -34509,63 +33945,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A33)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!G$3:G$2000)/B31</f>
         <v>31</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!H$3:H$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <f t="shared" si="2"/>
-        <v>0.508196721311475</v>
-      </c>
-      <c r="H31" s="16">
+        <v>0.50819672131147542</v>
+      </c>
+      <c r="H31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!E$3:E$2000)/B31</f>
         <v>31</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!F$3:F$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <f t="shared" si="3"/>
-        <v>0.508196721311475</v>
+        <v>0.50819672131147542</v>
       </c>
       <c r="K31">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!D$3:D$2000)/B31</f>
         <v>1</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!K$3:K$2000)/B31</f>
         <v>31</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!L$3:L$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="11">
         <f t="shared" si="6"/>
-        <v>0.508196721311475</v>
-      </c>
-      <c r="Q31" s="16">
+        <v>0.50819672131147542</v>
+      </c>
+      <c r="Q31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!I$3:I$2000)/B31</f>
         <v>31</v>
       </c>
@@ -34573,9 +34009,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!J$3:J$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="11">
         <f t="shared" si="7"/>
-        <v>0.508196721311475</v>
+        <v>0.50819672131147542</v>
       </c>
       <c r="T31">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!O$3:O$2000)/B31</f>
@@ -34585,7 +34021,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!P$3:P$2000)/B31</f>
         <v>31</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!Q$3:Q$2000)/B31</f>
         <v>1</v>
       </c>
@@ -34593,25 +34029,25 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!R$3:R$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="11">
         <f t="shared" si="8"/>
-        <v>0.032258064516129</v>
-      </c>
-      <c r="Y31" s="10">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="Y31" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!S$3:S$2000)/B31</f>
         <v>27</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A31,numbs!T$3:T$2000)/B31</f>
         <v>30</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA31" s="11">
         <f t="shared" si="9"/>
-        <v>0.473684210526316</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="AB31">
         <f>V31/(V31+SUMIF(numbs!A$3:A$2000,avg!A31,numbs!U$3:U$2000)/B31)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC31">
         <f t="shared" si="10"/>
@@ -34626,63 +34062,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A34)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!G$3:G$2000)/B32</f>
         <v>32</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!H$3:H$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f t="shared" si="2"/>
-        <v>0.507936507936508</v>
-      </c>
-      <c r="H32" s="16">
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="H32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!E$3:E$2000)/B32</f>
         <v>32</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!F$3:F$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <f t="shared" si="3"/>
-        <v>0.507936507936508</v>
+        <v>0.50793650793650791</v>
       </c>
       <c r="K32">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!D$3:D$2000)/B32</f>
         <v>1</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!K$3:K$2000)/B32</f>
         <v>32</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!L$3:L$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="11">
         <f t="shared" si="6"/>
-        <v>0.507936507936508</v>
-      </c>
-      <c r="Q32" s="16">
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="Q32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!I$3:I$2000)/B32</f>
         <v>32</v>
       </c>
@@ -34690,9 +34126,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!J$3:J$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="11">
         <f t="shared" si="7"/>
-        <v>0.507936507936508</v>
+        <v>0.50793650793650791</v>
       </c>
       <c r="T32">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!O$3:O$2000)/B32</f>
@@ -34702,7 +34138,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!P$3:P$2000)/B32</f>
         <v>32</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!Q$3:Q$2000)/B32</f>
         <v>1</v>
       </c>
@@ -34710,21 +34146,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!R$3:R$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="11">
         <f t="shared" si="8"/>
-        <v>0.03125</v>
-      </c>
-      <c r="Y32" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Y32" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!S$3:S$2000)/B32</f>
         <v>28</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A32,numbs!T$3:T$2000)/B32</f>
         <v>31</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="11">
         <f t="shared" si="9"/>
-        <v>0.474576271186441</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="AB32">
         <f>V32/(V32+SUMIF(numbs!A$3:A$2000,avg!A32,numbs!U$3:U$2000)/B32)</f>
@@ -34743,63 +34179,63 @@
         <f>COUNTIF(numbs!A$3:A$2000,avg!A34)</f>
         <v>1</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!G$3:G$2000)/B33</f>
         <v>33</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!H$3:H$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <f t="shared" si="2"/>
-        <v>0.507692307692308</v>
-      </c>
-      <c r="H33" s="16">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="H33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!E$3:E$2000)/B33</f>
         <v>33</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!F$3:F$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <f t="shared" si="3"/>
-        <v>0.507692307692308</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="K33">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!D$3:D$2000)/B33</f>
         <v>1</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="15">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!K$3:K$2000)/B33</f>
         <v>33</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!L$3:L$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="11">
         <f t="shared" si="6"/>
-        <v>0.507692307692308</v>
-      </c>
-      <c r="Q33" s="16">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="Q33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!I$3:I$2000)/B33</f>
         <v>33</v>
       </c>
@@ -34807,9 +34243,9 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!J$3:J$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="11">
         <f t="shared" si="7"/>
-        <v>0.507692307692308</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="T33">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!O$3:O$2000)/B33</f>
@@ -34819,7 +34255,7 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!P$3:P$2000)/B33</f>
         <v>33</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V33" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!Q$3:Q$2000)/B33</f>
         <v>1</v>
       </c>
@@ -34827,21 +34263,21 @@
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!R$3:R$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="11">
         <f t="shared" si="8"/>
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="Y33" s="10">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="Y33" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!S$3:S$2000)/B33</f>
         <v>29</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A33,numbs!T$3:T$2000)/B33</f>
         <v>32</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="11">
         <f t="shared" si="9"/>
-        <v>0.475409836065574</v>
+        <v>0.47540983606557374</v>
       </c>
       <c r="AB33">
         <f>V33/(V33+SUMIF(numbs!A$3:A$2000,avg!A33,numbs!U$3:U$2000)/B33)</f>
@@ -34862,107 +34298,107 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>1.39183673469388</v>
+        <v>1.3918367346938776</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>0.975510204081633</v>
+        <v>0.97551020408163269</v>
       </c>
       <c r="E34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!G$3:G$2000)/B34</f>
-        <v>0.138775510204082</v>
-      </c>
-      <c r="F34" s="10">
+        <v>0.13877551020408163</v>
+      </c>
+      <c r="F34" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!H$3:H$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="G34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="G34" s="11">
         <f t="shared" si="2"/>
-        <v>0.507462686567164</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="H34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!E$3:E$2000)/B34</f>
-        <v>0.138775510204082</v>
-      </c>
-      <c r="I34" s="11">
+        <v>0.13877551020408163</v>
+      </c>
+      <c r="I34" s="10">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!F$3:F$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="J34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="J34" s="11">
         <f t="shared" si="3"/>
-        <v>0.507462686567164</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="K34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!D$3:D$2000)/B34</f>
-        <v>0.00408163265306122</v>
-      </c>
-      <c r="L34" s="16">
+        <v>4.0816326530612249E-3</v>
+      </c>
+      <c r="L34" s="15">
         <f t="shared" si="4"/>
-        <v>0.416326530612245</v>
-      </c>
-      <c r="M34" s="16">
+        <v>0.41632653061224489</v>
+      </c>
+      <c r="M34" s="15">
         <f t="shared" si="5"/>
-        <v>0.277551020408163</v>
-      </c>
-      <c r="N34" s="16">
+        <v>0.27755102040816326</v>
+      </c>
+      <c r="N34" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!K$3:K$2000)/B34</f>
-        <v>0.138775510204082</v>
-      </c>
-      <c r="O34" s="16">
+        <v>0.13877551020408163</v>
+      </c>
+      <c r="O34" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!L$3:L$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="P34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="P34" s="11">
         <f t="shared" si="6"/>
-        <v>0.507462686567164</v>
-      </c>
-      <c r="Q34" s="16">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="Q34" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!I$3:I$2000)/B34</f>
-        <v>0.138775510204082</v>
+        <v>0.13877551020408163</v>
       </c>
       <c r="R34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!J$3:J$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="S34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="S34" s="11">
         <f t="shared" si="7"/>
-        <v>0.507462686567164</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="T34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!O$3:O$2000)/B34</f>
-        <v>0.00408163265306122</v>
+        <v>4.0816326530612249E-3</v>
       </c>
       <c r="U34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!P$3:P$2000)/B34</f>
-        <v>0.138775510204082</v>
-      </c>
-      <c r="V34" s="16">
+        <v>0.13877551020408163</v>
+      </c>
+      <c r="V34" s="15">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!Q$3:Q$2000)/B34</f>
-        <v>0.00408163265306122</v>
+        <v>4.0816326530612249E-3</v>
       </c>
       <c r="W34">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!R$3:R$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="X34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="X34" s="11">
         <f t="shared" si="8"/>
-        <v>0.0294117647058824</v>
-      </c>
-      <c r="Y34" s="10">
+        <v>2.9411764705882356E-2</v>
+      </c>
+      <c r="Y34" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!S$3:S$2000)/B34</f>
-        <v>0.122448979591837</v>
-      </c>
-      <c r="Z34" s="10">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="Z34" s="9">
         <f>SUMIF(numbs!A$3:A$2000,avg!A34,numbs!T$3:T$2000)/B34</f>
-        <v>0.13469387755102</v>
-      </c>
-      <c r="AA34" s="12">
+        <v>0.13469387755102041</v>
+      </c>
+      <c r="AA34" s="11">
         <f t="shared" si="9"/>
-        <v>0.476190476190476</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="AB34">
         <f>V34/(V34+SUMIF(numbs!A$3:A$2000,avg!A34,numbs!U$3:U$2000)/B34)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC34">
         <f t="shared" si="10"/>
@@ -34971,24 +34407,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.83984375" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -35005,77 +34439,77 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1114</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1305</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2056</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2386</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2706</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4015</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>4039</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>4151</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>4343</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>4476</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>4940</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>4951</v>
       </c>
@@ -35172,28 +34606,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="22" max="24" width="15.5714285714286" customWidth="1"/>
-    <col min="25" max="25" width="11.1428571428571" customWidth="1"/>
+    <col min="22" max="24" width="15.578125" customWidth="1"/>
+    <col min="25" max="25" width="11.15625" customWidth="1"/>
     <col min="26" max="26" width="26" customWidth="1"/>
-    <col min="28" max="28" width="9.57142857142857" customWidth="1"/>
-    <col min="29" max="29" width="5.42857142857143" customWidth="1"/>
-    <col min="31" max="31" width="16.1428571428571" customWidth="1"/>
-    <col min="32" max="32" width="11.7142857142857" customWidth="1"/>
+    <col min="28" max="28" width="9.578125" customWidth="1"/>
+    <col min="29" max="29" width="5.41796875" customWidth="1"/>
+    <col min="31" max="31" width="16.15625" customWidth="1"/>
+    <col min="32" max="32" width="11.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -35224,73 +34656,73 @@
       <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -35307,7 +34739,7 @@
       <c r="D2" s="3">
         <v>4976</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f ca="1">SUM(F2:H2)</f>
         <v>2</v>
       </c>
@@ -35367,7 +34799,7 @@
         <f>SUMIF(avg!$A$2:$A$81,Predictor!D2,avg!$AO$2:$AO$81)+SUMIF(avg!$A$2:$A$81,Predictor!D2,avg!$AP$2:$AP$81)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <f>SUM(Q2:S2)</f>
         <v>0</v>
       </c>
@@ -35415,7 +34847,7 @@
         <f>SUMIF(avg!A$2:A$81,Predictor!B3,avg!BY$2:BY$81)+SUMIF(avg!A$2:A$81,Predictor!C3,avg!BY$2:BY$81)+SUMIF(avg!A$2:A$81,Predictor!D3,avg!BY$2:BY$81)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="8">
         <f>SUMIF(avg!A$2:A$81,Predictor!B2,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!C2,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!D2,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!B2,avg!BO$2:BO$81)+SUMIF(avg!A$2:A$81,Predictor!C2,avg!BO$2:BO$81)+SUMIF(avg!A$2:A$81,Predictor!D2,avg!BO$2:BO$81)</f>
         <v>0</v>
       </c>
@@ -35487,7 +34919,7 @@
         <f>SUMIF(avg!$A$2:$A$81,Predictor!D3,avg!$AO$2:$AO$81)+SUMIF(avg!$A$2:$A$81,Predictor!D3,avg!$AP$2:$AP$81)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <f>SUM(Q3:S3)</f>
         <v>0</v>
       </c>
@@ -35535,43 +34967,37 @@
         <f>SUMIF(avg!A$2:A$81,Predictor!B2,avg!BY$2:BY$81)+SUMIF(avg!A$2:A$81,Predictor!C2,avg!BY$2:BY$81)+SUMIF(avg!A$2:A$81,Predictor!D2,avg!BY$2:BY$81)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="8">
         <f>SUMIF(avg!A$2:A$81,Predictor!B3,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!C3,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!D3,avg!BQ$2:BQ$81)+SUMIF(avg!A$2:A$81,Predictor!B3,avg!BO$2:BO$81)+SUMIF(avg!A$2:A$81,Predictor!C3,avg!BO$2:BO$81)+SUMIF(avg!A$2:A$81,Predictor!D3,avg!BO$2:BO$81)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -35740,6 +35166,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>